--- a/InterFaceTest/testcase/testCase.xlsx
+++ b/InterFaceTest/testcase/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8700"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="interface" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>用例编号</t>
   </si>
@@ -147,19 +147,57 @@
     <t>POST</t>
   </si>
   <si>
-    <t>data = {"s": "App.Scws.GetWords","app_key": "B2F70096FD3977B3F183DFD952F4446B","text": "HelloWorld。"}</t>
+    <t>{"s": "App.Scws.GetWords","app_key": "B2F70096FD3977B3F183DFD952F4446B","text": "HelloWorld."}</t>
   </si>
   <si>
     <t>key错误POST</t>
   </si>
   <si>
-    <t>data = {"s": "App.Scws.GetWords","app_key": "B2F73977B3F183DFD952F4446B","text": "HelloWorld"}</t>
+    <t>{"s": "App.Scws.GetWords","app_key": "B2F73977B3F183DFD952F4446B","text": "HelloWorld"}</t>
   </si>
   <si>
     <t>s异常POST</t>
   </si>
   <si>
-    <t>data = {"s": "App.Scws.Get","app_key": "B2F70096FD3977B3F183DFD952F4446B","text": "可以免费使用，基本上应用需要的数据都有接口提供。"}</t>
+    <r>
+      <t>{"s": "App.Scws.Get","app_key": "B2F70096FD3977B3F183DFD952F4446B","text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以免费使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基本上应用需要的数据都有接口提供</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>."}</t>
+    </r>
   </si>
   <si>
     <t>主机名错误</t>
@@ -168,7 +206,33 @@
     <t>http://hn216.api</t>
   </si>
   <si>
-    <t>data = {"s": "App.Scws.GetWords","app_key": "B2F70096FD3977B3F183DFD952F4446B","text": "可以免费使用。"}</t>
+    <r>
+      <t>{"s": "App.Scws.GetWords","app_key": "B2F70096FD3977B3F183DFD952F4446B","text": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以免费使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>."}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://ec2-18-162-82-147.ap-east-1.compute.amazonaws.com/chat_app/service</t>
+  </si>
+  <si>
+    <t>{'postdata':'{"public":{"channel":"HOOM_ANDROID_001","lang":"ZH_CN","packid":"200","version":"301"},"request":{"method":"userlogin#user_login","password":"5690dddfa28ae085d23518a035707282","uid":"0","user_name":"a123456"},"extend":{"device":"NX563J","macid":"98E8254436E8554D0BE6E1C21C6916C2","net":"wifi","tz_delta":"GMT+08:00","tz_name":"Asia\\/Shanghai"},"sig":"b51bb6ad5924b39516560217f7b1762f","accesstoken":"FqJVkOsvPRY0GxCUuQES678f51IhgH9z"}'}</t>
   </si>
 </sst>
 </file>
@@ -177,11 +241,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +259,148 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,147 +410,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF505050"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,187 +431,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,26 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +664,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,21 +699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -636,13 +708,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,16 +742,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,112 +763,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E11 E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1268,7 +1344,7 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1285,7 +1361,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1302,7 +1378,7 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1319,7 +1395,7 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1404,7 +1480,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1421,7 +1497,7 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1438,7 +1514,7 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1455,8 +1531,25 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1465,6 +1558,7 @@
     <hyperlink ref="C9" r:id="rId2" display="http://hn216.api"/>
     <hyperlink ref="C10" r:id="rId1" display="http://hn216.api.yesapi.cn" tooltip="http://hn216.api.yesapi.cn"/>
     <hyperlink ref="C17" r:id="rId2" display="http://hn216.api"/>
+    <hyperlink ref="C18" r:id="rId3" display="http://ec2-18-162-82-147.ap-east-1.compute.amazonaws.com/chat_app/service"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
